--- a/anexos/analis-economico.xlsx
+++ b/anexos/analis-economico.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\DOCUMENTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Documents\u\APMG1\Tile-Tech\anexos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F5F8D-9A4A-4CE3-BD0B-D3C16F5C4027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F126E7C-4E03-4504-AC11-64709FD9896D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="728" firstSheet="2" activeTab="7" xr2:uid="{E1118AED-C4D8-48AF-BBD1-468213FD43FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="856" activeTab="3" xr2:uid="{E1118AED-C4D8-48AF-BBD1-468213FD43FF}"/>
   </bookViews>
   <sheets>
-    <sheet name="PRODUCIION ACTUAL" sheetId="8" r:id="rId1"/>
+    <sheet name="PRODUCCION ACTUAL" sheetId="8" r:id="rId1"/>
     <sheet name="COSTOS Y GASTOS ACTUAL MES " sheetId="1" r:id="rId2"/>
     <sheet name="INGRESOS ACTUALES MES" sheetId="3" r:id="rId3"/>
     <sheet name="PROPUESTA" sheetId="7" r:id="rId4"/>
-    <sheet name="PRODUCIION PROYECTADA" sheetId="10" r:id="rId5"/>
+    <sheet name="PRODUCCION PROYECTADA" sheetId="10" r:id="rId5"/>
     <sheet name="COSTOS Y GASTOS MES PROY " sheetId="11" r:id="rId6"/>
     <sheet name="INGRESOS PROYEC MES" sheetId="12" r:id="rId7"/>
     <sheet name="RESUMEN" sheetId="4" r:id="rId8"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="151">
   <si>
     <t>cantidad mes</t>
   </si>
@@ -219,9 +219,6 @@
     <t>IVA 19%</t>
   </si>
   <si>
-    <t>Cambio de esmaltadora</t>
-  </si>
-  <si>
     <t>Implementar empacadora</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
   </si>
   <si>
     <t>PRODUCCION MES BALDOSAS</t>
-  </si>
-  <si>
-    <t>Perdidas por daño de producto en empacad y paletizado de 5%</t>
   </si>
   <si>
     <t>Produccion final</t>
@@ -485,6 +479,24 @@
   </si>
   <si>
     <t>0.0005</t>
+  </si>
+  <si>
+    <t>% rentabilidad sobre ventas</t>
+  </si>
+  <si>
+    <t>Nueva esmaltadora</t>
+  </si>
+  <si>
+    <t>Perdidas por daño de producto en empacado y paletizado de 5%</t>
+  </si>
+  <si>
+    <t>No baldosas</t>
+  </si>
+  <si>
+    <t>No m2 producidos</t>
+  </si>
+  <si>
+    <t>costos de caja de baldosas</t>
   </si>
 </sst>
 </file>
@@ -754,7 +766,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -783,25 +795,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -832,12 +832,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -846,25 +853,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,7 +890,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1202,96 +1212,96 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="56"/>
+      <c r="C5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
-      <c r="C5" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>80</v>
       </c>
       <c r="C12" s="6">
         <f>7000*24*29</f>
         <v>4872000</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="6">
         <f>+C12*0.95</f>
         <v>4628400</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6">
         <f>+C14/25</f>
@@ -1308,29 +1318,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C350A0CC-1F48-4228-9280-2FE158369302}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65:C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>148</v>
+      </c>
       <c r="D1">
         <v>7000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1350,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1376,7 +1389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1399,7 +1412,7 @@
         <v>267960000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1422,7 +1435,7 @@
         <v>198777600</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1445,7 +1458,7 @@
         <v>299774160.00000006</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1468,7 +1481,7 @@
         <v>112543200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1486,7 +1499,7 @@
         <v>83311200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
@@ -1498,7 +1511,7 @@
         <v>2355758160</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="14" t="s">
         <v>45</v>
       </c>
@@ -1509,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1519,30 +1532,30 @@
       <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>141120</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="22">
         <v>18000</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="22">
         <v>108000</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>44</v>
       </c>
@@ -1561,7 +1574,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1591,11 +1604,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1605,20 +1618,20 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="55">
         <v>36000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="55">
         <v>96000</v>
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>37</v>
       </c>
@@ -1628,56 +1641,56 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="55">
         <v>1500</v>
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="55">
         <v>21600</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="55">
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="67">
+        <v>142</v>
+      </c>
+      <c r="E24" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="67">
+        <v>141</v>
+      </c>
+      <c r="E25" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="55">
         <v>12600</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>42</v>
       </c>
@@ -1693,42 +1706,42 @@
         <v>163423000</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="57"/>
       <c r="E28" s="16"/>
-      <c r="G28" s="4">
+      <c r="G28" s="65">
         <f>+G27+G16+G15</f>
         <v>758641960</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="E29" s="16"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="E30" s="16"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="E31" s="16"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="E32" s="16"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1750,7 @@
         <v>572.5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>4</v>
@@ -1759,7 +1772,7 @@
         <v>769.08</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1785,7 +1798,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1797,7 +1810,7 @@
         <v>879.12</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -1823,7 +1836,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1831,7 +1844,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>21216000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1861,7 +1874,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +1896,7 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1891,7 +1904,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -1913,7 +1926,7 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1921,7 +1934,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -1943,7 +1956,7 @@
         <v>42432000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1951,9 +1964,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
@@ -1973,7 +1986,7 @@
         <v>63648000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1981,7 +1994,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>29</v>
@@ -2001,7 +2014,7 @@
         <v>31824000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>30</v>
@@ -2019,16 +2032,16 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="54" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="19">
         <f>SUM(F36:F51)</f>
         <v>212472000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>31</v>
       </c>
@@ -2037,16 +2050,16 @@
         <v>2355758160</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C55" s="8">
         <f>+G28</f>
         <v>758641960</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>3</v>
       </c>
@@ -2055,47 +2068,64 @@
         <v>212472000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="8">
         <v>57021888</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="8">
         <v>5461831.8189671235</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <f>SUM(C54:C58)</f>
         <v>3389355839.8189673</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="19">
         <f>+C59*0.25</f>
         <v>847338959.95474184</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B61" s="21" t="s">
+    <row r="61" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B61" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="21">
         <f>+C60+C59</f>
         <v>4236694799.7737093</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63">
+        <v>185136</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="8">
+        <f>C61/C63</f>
+        <v>22884.229970258129</v>
       </c>
     </row>
   </sheetData>
@@ -2111,29 +2141,29 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>185136</v>
       </c>
@@ -2145,35 +2175,44 @@
         <v>5702188800</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="8">
         <f>+D3</f>
         <v>5702188800</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4">
         <f>+'COSTOS Y GASTOS ACTUAL MES '!C61</f>
         <v>4236694799.7737093</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4">
         <f>+C5-C6</f>
         <v>1465494000.2262907</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="55">
+    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="3">
+        <f>+C7/C5</f>
+        <v>0.25700552044616459</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="50">
         <f>+C5*1%</f>
         <v>57021888</v>
       </c>
@@ -2187,100 +2226,100 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0812727A-57C2-4450-B572-386BDC9FC480}">
   <dimension ref="C2:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C2" s="27" t="s">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C2" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="3:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="3:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
@@ -2289,10 +2328,10 @@
         <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
         <v>53</v>
       </c>
@@ -2307,16 +2346,16 @@
         <v>23400000</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="7">
         <f>+F11*6</f>
         <v>140400000</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2324,16 +2363,16 @@
         <v>4000000</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ref="H12:H14" si="0">+F12*6</f>
         <v>24000000</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2341,154 +2380,154 @@
         <v>2000000</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>12000000</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="32">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28">
         <v>1000000</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>6000000</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="30">
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="26">
         <f>SUM(H11:H14)</f>
         <v>182400000</v>
       </c>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C16" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="30">
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="26">
         <f>+H15*0.2</f>
         <v>36480000</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="36">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="32">
         <f>+H15+H16</f>
         <v>218880000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="29" t="s">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="36">
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="32">
         <f>+H17*0.19</f>
         <v>41587200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43">
+    <row r="19" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39">
         <f>+H15+H16+H18</f>
         <v>260467200</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C20" s="12"/>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="6">
         <v>3867</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="44">
+        <v>117</v>
+      </c>
+      <c r="D24" s="40">
         <v>10000</v>
       </c>
       <c r="E24" s="7">
         <f>+D24*$D$22</f>
         <v>38670000</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="41">
         <v>0.05</v>
       </c>
       <c r="G24" s="7">
         <f>+E24*1.05</f>
         <v>40603500</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="41">
         <v>0.19</v>
       </c>
       <c r="I24" s="7">
@@ -2496,25 +2535,25 @@
         <v>48318165</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="44">
+        <v>118</v>
+      </c>
+      <c r="D25" s="40">
         <v>80946.67</v>
       </c>
       <c r="E25" s="7">
         <f t="shared" ref="E25:E27" si="1">+D25*$D$22</f>
         <v>313020772.88999999</v>
       </c>
-      <c r="F25" s="45">
+      <c r="F25" s="41">
         <v>0.05</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" ref="G25:G28" si="2">+E25*1.05</f>
         <v>328671811.5345</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="41">
         <v>0.19</v>
       </c>
       <c r="I25" s="7">
@@ -2522,25 +2561,25 @@
         <v>391119455.72605497</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="47">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C26" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="43">
         <v>32000</v>
       </c>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
         <v>123744000</v>
       </c>
-      <c r="F26" s="45">
+      <c r="F26" s="41">
         <v>0.05</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
         <v>129931200</v>
       </c>
-      <c r="H26" s="45">
+      <c r="H26" s="41">
         <v>0.19</v>
       </c>
       <c r="I26" s="7">
@@ -2548,25 +2587,25 @@
         <v>154618128</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="47">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C27" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="43">
         <v>12700</v>
       </c>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
         <v>49110900</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="41">
         <v>0.05</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
         <v>51566445</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="41">
         <v>0.19</v>
       </c>
       <c r="I27" s="7">
@@ -2574,20 +2613,20 @@
         <v>61364069.549999997</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="50">
+        <v>120</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="46">
         <v>0.05</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="50">
+      <c r="H28" s="46">
         <v>0.19</v>
       </c>
       <c r="I28" s="7">
@@ -2595,16 +2634,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="49" t="s">
+    <row r="29" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="43">
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="39">
         <f>SUM(I24:I28)</f>
         <v>655419818.27605486</v>
       </c>
@@ -2613,40 +2652,40 @@
         <v>1820610.6063223744</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.3">
       <c r="I30" s="4"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>98</v>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C31" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="I31" s="4"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="58"/>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="59"/>
       <c r="J32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" s="7">
         <v>2500000</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D34" s="7">
         <v>5000000</v>
@@ -2656,32 +2695,32 @@
         <v>5461831.8189671235</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="7">
         <v>8000000</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" s="7">
         <v>1500000</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="24">
         <f>SUM(D33:D36)</f>
         <v>17000000</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>57</v>
       </c>
@@ -2690,75 +2729,75 @@
         <v>3230000</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C39" s="48" t="s">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="47">
         <f>+D38+D37</f>
         <v>20230000</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="28">
+        <v>97</v>
+      </c>
+      <c r="D41" s="24">
         <f>+H19</f>
         <v>260467200</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="28">
-        <f>+I29+D39</f>
-        <v>675649818.27605486</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D42" s="24">
+        <f>+I29</f>
+        <v>655419818.27605486</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="28">
+        <v>98</v>
+      </c>
+      <c r="D43" s="24">
         <f>+D39</f>
         <v>20230000</v>
       </c>
     </row>
-    <row r="44" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="53">
+      <c r="D44" s="48">
         <f>SUM(D41:D43)</f>
-        <v>956347018.27605486</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.25">
+        <v>936117018.27605486</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:G8"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2770,122 +2809,122 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="56.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
-        <v>132</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="56" t="s">
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G4">
         <f>3600*3</f>
         <v>10800</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="56"/>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <f>+G4-20</f>
         <v>10780</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>10780</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="6">
         <f>8820*24*29</f>
         <v>6138720</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" s="6">
         <f>+C12*0.995</f>
         <v>6108026.4000000004</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="6">
         <f>+C14/25</f>
         <v>244321.05600000001</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" s="3">
-        <f>+(C15/'PRODUCIION ACTUAL'!C15)-1</f>
+        <f>+(C15/'PRODUCCION ACTUAL'!C15)-1</f>
         <v>0.31968421052631579</v>
       </c>
     </row>
@@ -2901,28 +2940,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F22952-A2CA-4070-90C7-0B5FA143EB2C}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="D1">
         <v>7000</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -2942,7 +2981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="21" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -2968,7 +3007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +3030,7 @@
         <v>277200000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -3014,7 +3053,7 @@
         <v>205632000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -3037,7 +3076,7 @@
         <v>310111200.00000006</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -3060,7 +3099,7 @@
         <v>116424000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -3078,7 +3117,7 @@
         <v>109944450</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6">
@@ -3090,7 +3129,7 @@
         <v>2460751650</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="14" t="s">
         <v>45</v>
       </c>
@@ -3101,7 +3140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -3115,7 +3154,7 @@
         <v>141120</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>34</v>
       </c>
@@ -3124,7 +3163,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>35</v>
       </c>
@@ -3133,7 +3172,7 @@
         <v>146880</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>44</v>
       </c>
@@ -3149,7 +3188,7 @@
         <v>679014000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -3175,11 +3214,11 @@
         <v>2479680</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3189,20 +3228,20 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="67">
+      <c r="E18" s="55">
         <v>36000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="67">
+      <c r="E19" s="55">
         <v>96000</v>
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>37</v>
       </c>
@@ -3212,58 +3251,58 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="67">
+      <c r="E21" s="55">
         <v>1500</v>
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="67">
+      <c r="E22" s="55">
         <f>+'COSTOS Y GASTOS ACTUAL MES '!E22*1.36</f>
         <v>29376.000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="67">
+      <c r="E23" s="55">
         <f>+'COSTOS Y GASTOS ACTUAL MES '!E23*1.36</f>
         <v>2312</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="55">
         <v>5760</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="55">
         <v>5760</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="55">
         <v>12600</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>42</v>
       </c>
@@ -3279,42 +3318,42 @@
         <v>166978760</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="57"/>
       <c r="E28" s="16"/>
       <c r="G28" s="4">
         <f>+G27+G16+G15</f>
         <v>848472440</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="E29" s="16"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="E30" s="16"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="E31" s="16"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="E32" s="16"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -3323,7 +3362,7 @@
         <v>572.5</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>4</v>
@@ -3345,7 +3384,7 @@
         <v>769.08</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -3371,7 +3410,7 @@
         <v>272.5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3383,7 +3422,7 @@
         <v>879.12</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>11</v>
       </c>
@@ -3409,7 +3448,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3417,7 +3456,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>12</v>
       </c>
@@ -3439,7 +3478,7 @@
         <v>21216000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3447,7 +3486,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
@@ -3469,7 +3508,7 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3477,7 +3516,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -3499,7 +3538,7 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3507,7 +3546,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>15</v>
       </c>
@@ -3529,7 +3568,7 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3537,9 +3576,9 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>9</v>
@@ -3559,7 +3598,7 @@
         <v>10608000</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3567,7 +3606,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>29</v>
@@ -3587,7 +3626,7 @@
         <v>31824000</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>30</v>
@@ -3605,8 +3644,8 @@
         <v>10920000</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="54" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="49" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="8">
@@ -3614,18 +3653,18 @@
         <v>127608000</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O53">
         <v>1820610.60632237</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>31</v>
       </c>
@@ -3642,7 +3681,7 @@
         <v>892434018</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>32</v>
       </c>
@@ -3659,7 +3698,7 @@
         <v>89830480</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>3</v>
       </c>
@@ -3676,9 +3715,9 @@
         <v>-84864000</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="8">
         <v>75250885.248000011</v>
@@ -3692,9 +3731,9 @@
         <v>18228997.248000011</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C58" s="8">
         <f>5461831.81896712+1820610.60632237</f>
@@ -3709,11 +3748,11 @@
         <v>1820610.6063223658</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B59" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <f>SUM(C54:C58)</f>
         <v>4306805945.6732893</v>
       </c>
@@ -3726,11 +3765,11 @@
         <v>917450105.85432196</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B60" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="19">
         <f>+C59*0.25</f>
         <v>1076701486.4183223</v>
       </c>
@@ -3743,11 +3782,11 @@
         <v>229362526.46358049</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B61" s="21" t="s">
+    <row r="61" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B61" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="21">
         <f>+C60+C59</f>
         <v>5383507432.0916119</v>
       </c>
@@ -3773,20 +3812,20 @@
   <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>49</v>
@@ -3795,9 +3834,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
-        <f>+'PRODUCIION PROYECTADA'!C15</f>
+        <f>+'PRODUCCION PROYECTADA'!C15</f>
         <v>244321.05600000001</v>
       </c>
       <c r="C3" s="4">
@@ -3808,17 +3847,17 @@
         <v>7525088524.8000002</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4">
         <f>+D3</f>
@@ -3837,9 +3876,9 @@
         <v>0.31968421052631585</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="4">
         <f>+'COSTOS Y GASTOS MES PROY '!C61</f>
@@ -3850,7 +3889,7 @@
         <v>4236694799.7737093</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G7" si="0">+C6-E6</f>
+        <f t="shared" ref="G6" si="0">+C6-E6</f>
         <v>1146812632.3179026</v>
       </c>
       <c r="H6" s="3">
@@ -3858,9 +3897,9 @@
         <v>0.2706856845999755</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4">
         <f>+C5-C6</f>
@@ -3879,7 +3918,7 @@
         <v>0.46133733224271223</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E9" s="15"/>
     </row>
   </sheetData>
@@ -3889,79 +3928,79 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5ADD25-D018-4E13-AEB7-1E7D7B1E599A}">
-  <dimension ref="B14:F26"/>
+  <dimension ref="B14:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="61">
-        <f>+'PRODUCIION ACTUAL'!C15</f>
+      <c r="C15" s="64"/>
+      <c r="D15" s="52">
+        <f>+'PRODUCCION ACTUAL'!C15</f>
         <v>185136</v>
       </c>
-      <c r="E15" s="61">
-        <f>+'PRODUCIION PROYECTADA'!C15</f>
+      <c r="E15" s="52">
+        <f>+'PRODUCCION PROYECTADA'!C15</f>
         <v>244321.05600000001</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="46">
         <f>+E15/D15-1</f>
         <v>0.31968421052631579</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" s="19">
+        <v>111</v>
+      </c>
+      <c r="D16" s="18">
         <f>+'INGRESOS ACTUALES MES'!D3</f>
         <v>5702188800</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <f>+'INGRESOS PROYEC MES'!D3</f>
         <v>7525088524.8000002</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="53">
         <f>+E16/D16-1</f>
         <v>0.31968421052631579</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="60" t="s">
-        <v>111</v>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="62" t="s">
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>31</v>
@@ -3976,8 +4015,8 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="60"/>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="62"/>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -3991,8 +4030,8 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="62"/>
       <c r="C20" s="1" t="s">
         <v>3</v>
       </c>
@@ -4006,10 +4045,10 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="60"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="62"/>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" s="7">
         <f>+'COSTOS Y GASTOS ACTUAL MES '!C57</f>
@@ -4021,10 +4060,10 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="60"/>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="62"/>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D22" s="7">
         <f>+'COSTOS Y GASTOS ACTUAL MES '!C58</f>
@@ -4036,9 +4075,9 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="62" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="62"/>
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="7">
@@ -4051,9 +4090,9 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="60"/>
-      <c r="C24" s="62" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="62"/>
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="7">
@@ -4066,40 +4105,54 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="60"/>
-      <c r="C25" s="59" t="s">
+    <row r="25" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B25" s="62"/>
+      <c r="C25" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <f>+'COSTOS Y GASTOS ACTUAL MES '!C61</f>
         <v>4236694799.7737093</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <f>+'COSTOS Y GASTOS MES PROY '!C61</f>
         <v>5383507432.0916119</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="53">
         <f>+E25/D25-1</f>
         <v>0.27068568459997544</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="52">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="47">
         <f>+D16-D25</f>
         <v>1465494000.2262907</v>
       </c>
-      <c r="E26" s="52">
+      <c r="E26" s="47">
         <f>+E16-E25</f>
         <v>2141581092.7083883</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="54">
         <f>+E26/D26-1</f>
         <v>0.46133733224271212</v>
+      </c>
+      <c r="H26" s="8">
+        <f>+E26-D26</f>
+        <v>676087092.48209763</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D27" s="3">
+        <f>+D26/D16</f>
+        <v>0.25700552044616459</v>
+      </c>
+      <c r="E27" s="3">
+        <f>+E26/E16</f>
+        <v>0.28459214607914618</v>
       </c>
     </row>
   </sheetData>

--- a/anexos/analis-economico.xlsx
+++ b/anexos/analis-economico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Documents\u\APMG1\Tile-Tech\anexos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F126E7C-4E03-4504-AC11-64709FD9896D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB81D63-5045-4188-85D1-98E3FEC1355C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="856" activeTab="3" xr2:uid="{E1118AED-C4D8-48AF-BBD1-468213FD43FF}"/>
   </bookViews>
@@ -766,7 +766,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -869,6 +869,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1318,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C350A0CC-1F48-4228-9280-2FE158369302}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65:C65"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,7 +2116,7 @@
       <c r="B63" t="s">
         <v>149</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <v>185136</v>
       </c>
     </row>
@@ -2126,6 +2127,23 @@
       <c r="C65" s="8">
         <f>C61/C63</f>
         <v>22884.229970258129</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C67">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="3">
+        <f>C65/C67</f>
+        <v>0.74299447955383535</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="66">
+        <f>1-C69</f>
+        <v>0.25700552044616465</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2159,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0812727A-57C2-4450-B572-386BDC9FC480}">
   <dimension ref="C2:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
